--- a/Team-Data/2007-08/2-7-2007-08.xlsx
+++ b/Team-Data/2007-08/2-7-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -759,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -789,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1168,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
         <v>28</v>
@@ -1177,7 +1244,7 @@
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.408</v>
+        <v>0.396</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,85 +1297,85 @@
         <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
         <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
         <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,16 +1384,16 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
         <v>18</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1344,19 +1411,19 @@
         <v>19</v>
       </c>
       <c r="AV5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
         <v>15</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J6" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
         <v>6.6</v>
       </c>
       <c r="M6" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.721</v>
+        <v>0.723</v>
       </c>
       <c r="R6" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="U6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V6" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y6" t="n">
         <v>4.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>14</v>
@@ -1487,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1508,10 +1575,10 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>2</v>
@@ -1520,13 +1587,13 @@
         <v>13</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1535,13 +1602,13 @@
         <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA6" t="n">
         <v>21</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>22</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1720,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1878,7 +1945,7 @@
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2045,7 +2112,7 @@
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN9" t="n">
         <v>9</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.592</v>
+        <v>0.604</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,7 +2207,7 @@
         <v>40.3</v>
       </c>
       <c r="J10" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.455</v>
@@ -2152,16 +2219,16 @@
         <v>27.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O10" t="n">
         <v>19.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="R10" t="n">
         <v>12.1</v>
@@ -2173,43 +2240,43 @@
         <v>42.2</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V10" t="n">
         <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB10" t="n">
         <v>109.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>14</v>
@@ -2233,13 +2300,13 @@
         <v>15</v>
       </c>
       <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
         <v>12</v>
       </c>
-      <c r="AP10" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2248,7 +2315,7 @@
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2260,10 +2327,10 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.592</v>
+        <v>0.583</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2325,73 +2392,73 @@
         <v>81.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L11" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q11" t="n">
         <v>0.727</v>
       </c>
       <c r="R11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S11" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="U11" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>5.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
@@ -2400,19 +2467,19 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
         <v>26</v>
@@ -2424,28 +2491,28 @@
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
@@ -2457,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2640,7 @@
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2597,10 +2664,10 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
         <v>12</v>
@@ -2624,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2876,7 @@
         <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
@@ -2955,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -2976,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3143,7 +3210,7 @@
         <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="n">
-        <v>0.184</v>
+        <v>0.188</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J16" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.328</v>
+        <v>0.332</v>
       </c>
       <c r="O16" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.717</v>
+        <v>0.715</v>
       </c>
       <c r="R16" t="n">
         <v>9.199999999999999</v>
@@ -3268,31 +3335,31 @@
         <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
         <v>21.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3307,13 +3374,13 @@
         <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,22 +3389,22 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>28</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3355,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3544,7 @@
         <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>23</v>
@@ -3546,7 +3613,7 @@
         <v>24</v>
       </c>
       <c r="BB17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3695,13 +3762,13 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
@@ -3901,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -4438,19 +4505,19 @@
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW22" t="n">
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
         <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.388</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4509,73 +4576,73 @@
         <v>80.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.311</v>
+        <v>0.313</v>
       </c>
       <c r="O23" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P23" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.704</v>
+        <v>0.706</v>
       </c>
       <c r="R23" t="n">
         <v>13</v>
       </c>
       <c r="S23" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U23" t="n">
         <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH23" t="n">
         <v>24</v>
@@ -4599,10 +4666,10 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4611,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT23" t="n">
         <v>16</v>
@@ -4626,19 +4693,19 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
       </c>
       <c r="BA23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,13 +4827,13 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4951,7 +5018,7 @@
         <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4963,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4975,7 +5042,7 @@
         <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>28</v>
@@ -4993,7 +5060,7 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5127,7 +5194,7 @@
         <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>8</v>
@@ -5333,7 +5400,7 @@
         <v>25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,7 +5555,7 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
         <v>9</v>
@@ -5506,7 +5573,7 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,16 +6104,16 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
@@ -6058,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6067,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6079,10 +6146,10 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX31" t="n">
         <v>14</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-7-2007-08</t>
+          <t>2008-02-07</t>
         </is>
       </c>
     </row>
